--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AD/10/seed3/result_data_RandomForest.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.8043</v>
+        <v>-7.668100000000003</v>
       </c>
     </row>
     <row r="5">
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.01279999999999</v>
+        <v>-22.0494</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.4383</v>
+        <v>-21.41260000000001</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.963899999999996</v>
+        <v>-5.873899999999995</v>
       </c>
     </row>
     <row r="13">
@@ -676,12 +676,12 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.38829999999999</v>
+        <v>-8.277899999999988</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.9768</v>
+        <v>-22.07240000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.254200000000003</v>
+        <v>-7.393500000000006</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.1601</v>
+        <v>-8.1981</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.147500000000001</v>
+        <v>-8.247999999999998</v>
       </c>
     </row>
     <row r="29">
@@ -947,7 +947,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.90429999999999</v>
+        <v>-20.08259999999998</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.869500000000001</v>
+        <v>-7.880200000000003</v>
       </c>
     </row>
     <row r="38">
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.2971</v>
+        <v>-22.232</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1348,7 +1348,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.790199999999998</v>
+        <v>-7.770000000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.30419999999998</v>
+        <v>-21.42150000000001</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.341899999999994</v>
+        <v>-8.311799999999998</v>
       </c>
     </row>
     <row r="74">
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.21309999999999</v>
+        <v>-20.21919999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.53309999999998</v>
+        <v>-19.77139999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1614,7 +1614,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-7.884300000000001</v>
+        <v>-8.209700000000003</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.592199999999998</v>
+        <v>-8.498799999999997</v>
       </c>
     </row>
     <row r="86">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.995399999999993</v>
+        <v>-6.675099999999992</v>
       </c>
     </row>
     <row r="94">
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.559799999999997</v>
+        <v>-7.5172</v>
       </c>
     </row>
     <row r="96">
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.313300000000003</v>
+        <v>-7.403100000000006</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.905900000000007</v>
+        <v>-8.030900000000003</v>
       </c>
     </row>
     <row r="100">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.054799999999998</v>
+        <v>-8.168899999999999</v>
       </c>
     </row>
     <row r="102">
